--- a/ExcelToJson/Excel/ItemInfo.xlsx
+++ b/ExcelToJson/Excel/ItemInfo.xlsx
@@ -5,181 +5,126 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TinyMVC\TinyMVC\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ExcelToJson\ExcelToJson\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489C4075-269F-4969-AF73-2BE4EFE7D2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5CA45B-47BA-41B4-95C9-865927C9F24E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19635" yWindow="2955" windowWidth="15570" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ItemInfo" sheetId="2" r:id="rId1"/>
+    <sheet name="ItemInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+  <si>
+    <t>IDs</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:10,Burst:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense:10,AtkSpeed:0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型对应值
+1-无
+2-开启掉落资源
+3-好感度
+4-增加属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型
+1-资源
+2-宝箱
+3-名品
+4-装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Funs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>索引</t>
-  </si>
-  <si>
-    <t>IDs</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>metal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nv_er_hong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女儿红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuang_gu_jian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双股剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉佩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_shu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yu_pei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备的随身佩剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛逼盔甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一件神秘的盔甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>niu_bi_kui_jia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chi_tu_ma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤兔马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕布和关羽的坐骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青龙偃月刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽的武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qing_long_yan_yu_dao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ming_hua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,12 +152,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -257,12 +196,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,6 +226,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,246 +536,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A55527-A7B2-4A24-B7BF-8BD439A002C6}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A8:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="1" max="1" width="31.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>